--- a/DrawBeams/R350/R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY.xlsx
+++ b/DrawBeams/R350/R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagoret/MacOSX/GitHub/LSST/OpticSimWthB4/DrawBeams/R350/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A227F172-EAA3-9B41-9113-5BC9BFA71DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C62A4B0-8503-A044-B1C4-98BF96BB93C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16780" xr2:uid="{457EF09B-B63D-084E-BC28-EA723E0D573A}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16800" xr2:uid="{5B0DDB0D-16E3-E94B-96F5-F46589051AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{8381A2D4-EB0E-BD4A-950B-50104BFA1CD6}" name="R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{68D4F513-0299-8942-B4EB-80637FFAE26A}" name="R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/dagoret/MacOSX/GitHub/LSST/OpticSimWthB4/DrawBeams/R350/R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY.txt" thousands=" " space="1" consecutive="1" delimiter=":">
       <textFields count="24">
         <textField/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY" connectionId="1" xr16:uid="{487FE269-824D-7D48-B9B2-51D58FCE7A80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY" connectionId="1" xr16:uid="{24524FD0-9DFD-6643-88C3-FEA0B0C90250}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,16 +513,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9BEE7C-0DE2-E64C-8E8D-B6C484D49A21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F636856F-02E7-C944-8E98-644DA9B9CEE3}">
   <dimension ref="A1:X486"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="B500" sqref="B500"/>
+      <selection activeCell="A487" sqref="A487:XFD983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
